--- a/vueAmplify Graphql.xlsx
+++ b/vueAmplify Graphql.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v161558\Documents\development\MORINAGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21E8F1F-60C8-4B33-AA09-FCDA18DE1776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="38430" windowHeight="20910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="認証" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="権限" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>目次</t>
     <rPh sb="0" eb="2">
@@ -36,11 +35,38 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>認証処理追加</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GraphでCRUD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンド&amp;バックエンド権限作成</t>
+    <rPh sb="14" eb="16">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +126,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,7 +161,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774F32B3-2133-4FB8-A9C4-21C48BC2466D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{774F32B3-2133-4FB8-A9C4-21C48BC2466D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -193,7 +219,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFD50BE-0FB4-4C04-A080-FE7779316FE6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFD50BE-0FB4-4C04-A080-FE7779316FE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -243,15 +269,15 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>47793</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>239535</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9090C57-7E96-4B21-93B7-066ED713BD29}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9090C57-7E96-4B21-93B7-066ED713BD29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -309,7 +335,7 @@
         <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C783FC-8121-4E64-92C1-1DD5FE9424D3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C783FC-8121-4E64-92C1-1DD5FE9424D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -367,7 +393,7 @@
         <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD41519D-DBBB-4760-8A8E-3EF0E157B217}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD41519D-DBBB-4760-8A8E-3EF0E157B217}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -425,7 +451,7 @@
         <xdr:cNvPr id="32" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0F9AFC-B5AA-4012-8AF6-348E21A52B7A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0F9AFC-B5AA-4012-8AF6-348E21A52B7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -483,7 +509,7 @@
         <xdr:cNvPr id="33" name="Picture 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107D3A16-612B-4AAF-B9BE-D0E9B2CB306D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107D3A16-612B-4AAF-B9BE-D0E9B2CB306D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -541,7 +567,7 @@
         <xdr:cNvPr id="34" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED62DFAF-D462-4779-89D1-84AC39D68DD5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED62DFAF-D462-4779-89D1-84AC39D68DD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -599,7 +625,7 @@
         <xdr:cNvPr id="35" name="Picture 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927AC6C4-7BAF-444A-A8EB-3ED0D6C1CB37}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927AC6C4-7BAF-444A-A8EB-3ED0D6C1CB37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -657,7 +683,7 @@
         <xdr:cNvPr id="36" name="Picture 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CE0666-A075-4B54-98C0-8E9997877BED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CE0666-A075-4B54-98C0-8E9997877BED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -673,8 +699,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4812196" y="40352870"/>
-          <a:ext cx="9288171" cy="2676899"/>
+          <a:off x="4800600" y="31670625"/>
+          <a:ext cx="9266637" cy="2654122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -701,13 +727,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>163671</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>130670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -715,7 +741,7 @@
         <xdr:cNvPr id="40" name="Picture 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53815DB8-0DBD-4897-A5FD-ECC26705183E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53815DB8-0DBD-4897-A5FD-ECC26705183E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -759,13 +785,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190688</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>115033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -773,7 +799,7 @@
         <xdr:cNvPr id="41" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56269632-A1D8-479F-B71B-A1836E7C7A78}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56269632-A1D8-479F-B71B-A1836E7C7A78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,23 +841,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>61957</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>101830</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>187892</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>621196</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>134816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>392302</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>144688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0A1174-2D29-4FC6-A15C-A00E95DD61CC}"/>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E1D2F3-398F-4018-B095-692011460B92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -839,16 +865,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="-1730" t="70621"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4812196" y="50983435"/>
-          <a:ext cx="5601482" cy="3248478"/>
+          <a:off x="4745935" y="55379816"/>
+          <a:ext cx="3895845" cy="730459"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -874,22 +899,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>134816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>392302</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>144688</xdr:rowOff>
+      <xdr:colOff>670891</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>91613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446339</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>118051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26E1D2F3-398F-4018-B095-692011460B92}"/>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97EC6113-06A9-4FAE-BC4F-EA78980E580F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,13 +924,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:srcRect l="-1730" t="70621"/>
+        <a:srcRect l="-315" t="69955"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4745935" y="55379816"/>
-          <a:ext cx="3895845" cy="730459"/>
+          <a:off x="4795630" y="57258178"/>
+          <a:ext cx="5275100" cy="747025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,22 +956,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>670891</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>91613</xdr:rowOff>
+      <xdr:colOff>612913</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>446339</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>118051</xdr:rowOff>
+      <xdr:colOff>513023</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>23262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97EC6113-06A9-4FAE-BC4F-EA78980E580F}"/>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9E2AB6-50B7-4EDC-A9D4-66CB53983F6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,13 +981,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:srcRect l="-315" t="69955"/>
+        <a:srcRect l="-1400" t="57883" r="-1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4795630" y="57258178"/>
-          <a:ext cx="5275100" cy="747025"/>
+          <a:off x="4737652" y="61573542"/>
+          <a:ext cx="5399762" cy="1464436"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -988,22 +1013,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>637761</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>64976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>674971</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>136531</xdr:rowOff>
+      <xdr:colOff>670891</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>53642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1723</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>101594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC51263C-B45B-419B-AE8C-334D1385D57A}"/>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B781C5A-208D-4E93-B57A-A977798DCE9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,13 +1038,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:srcRect l="-906" t="45254"/>
+        <a:srcRect l="-482" t="46489"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="59153106"/>
-          <a:ext cx="5536862" cy="1272533"/>
+          <a:off x="4795630" y="64185881"/>
+          <a:ext cx="3455571" cy="1248930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1044,23 +1069,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>612913</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>83455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>513023</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>106717</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>48518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>327340</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>152647</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9E2AB6-50B7-4EDC-A9D4-66CB53983F6A}"/>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937F8CEF-8956-40A7-B1FE-835C95F207A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1068,15 +1093,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:srcRect l="-1400" t="57883" r="-1"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4737652" y="61573542"/>
-          <a:ext cx="5399762" cy="1464436"/>
+          <a:off x="4812196" y="66582714"/>
+          <a:ext cx="7201905" cy="1305107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,22 +1128,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>670891</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>53642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1723</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>101594</xdr:rowOff>
+      <xdr:colOff>679174</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>99572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>78095</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>53079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B781C5A-208D-4E93-B57A-A977798DCE9F}"/>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3394900A-B8D9-4DB8-80B8-14FF7C8739B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1127,13 +1153,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:srcRect l="-482" t="46489"/>
+        <a:srcRect l="-108" t="36069"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4795630" y="64185881"/>
-          <a:ext cx="3455571" cy="1248930"/>
+          <a:off x="4803913" y="69035724"/>
+          <a:ext cx="7648399" cy="1394681"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1160,21 +1186,21 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>48518</xdr:rowOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>327340</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>152647</xdr:rowOff>
+      <xdr:colOff>641709</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>60572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937F8CEF-8956-40A7-B1FE-835C95F207A9}"/>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF4F2C1-614C-40C5-8932-21F5F5850100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,8 +1216,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4812196" y="66582714"/>
-          <a:ext cx="7201905" cy="1305107"/>
+          <a:off x="4812196" y="71578304"/>
+          <a:ext cx="7516274" cy="781159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1216,23 +1242,324 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>679174</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>99572</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>78095</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>53079</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>373250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3394900A-B8D9-4DB8-80B8-14FF7C8739B3}"/>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B44CA53-7C8D-448C-9997-5E2CDDED85FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4812196" y="1200978"/>
+          <a:ext cx="3810532" cy="1495634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>687456</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>240195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438977</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>98073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rectangle 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA5E0CF-FF7D-4423-AD6B-48513F881E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687456" y="3122543"/>
+          <a:ext cx="2501347" cy="818660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>amplify add auth</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」コマンドで認証処理を追加する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88849</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rectangle 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699F1C6E-AA2F-48C9-AAF8-BAEC6BC9B855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687457" y="5044109"/>
+          <a:ext cx="2151218" cy="818660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Default configuration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」を選択する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>240194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D0C98C-7556-44FF-B36D-1352839F5429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687457" y="6725477"/>
+          <a:ext cx="2749826" cy="819979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メールアドレスでサインしたいため、「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Email</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」を選択する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>629478</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>184441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DFB0CF-4AA8-445E-B3D7-494221156BD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1241,14 +1568,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:srcRect l="-108" t="36069"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:srcRect t="17389" r="980"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4803913" y="69035724"/>
-          <a:ext cx="7648399" cy="1394681"/>
+          <a:off x="4812196" y="8887239"/>
+          <a:ext cx="4754217" cy="905028"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1271,547 +1598,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>268</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>641709</xdr:colOff>
-      <xdr:row>271</xdr:row>
-      <xdr:rowOff>60572</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF4F2C1-614C-40C5-8932-21F5F5850100}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4812196" y="71578304"/>
-          <a:ext cx="7516274" cy="781159"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>420881</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>127256</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D393F4B-09A3-45B1-A2B8-18601F997F5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4812196" y="73259674"/>
-          <a:ext cx="3858163" cy="847843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>280</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>198654</xdr:colOff>
-      <xdr:row>285</xdr:row>
-      <xdr:rowOff>170813</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9972CCE-63FD-4DD2-8FFC-B988022067F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4812196" y="74460652"/>
-          <a:ext cx="5010849" cy="1371791"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>287</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>436813</xdr:colOff>
-      <xdr:row>291</xdr:row>
-      <xdr:rowOff>77587</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677F8CAB-49CA-42A8-8755-08EBFADED6CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4812196" y="76142022"/>
-          <a:ext cx="5249008" cy="1038370"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>292</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>246286</xdr:colOff>
-      <xdr:row>298</xdr:row>
-      <xdr:rowOff>83039</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6CB434-172C-4302-A666-BFCF0AA67450}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4812196" y="77343000"/>
-          <a:ext cx="5058481" cy="1524213"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>154306</xdr:colOff>
-      <xdr:row>304</xdr:row>
-      <xdr:rowOff>75550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C01528D1-2A19-4561-A46F-A63A7F616E24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4812196" y="79024370"/>
-          <a:ext cx="7716327" cy="1276528"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>596142</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>219955</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88578888-5642-4D81-B25F-7ABDCE2F42B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14486283" y="31954305"/>
-          <a:ext cx="7421011" cy="3334215"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>306</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314531</xdr:colOff>
-      <xdr:row>317</xdr:row>
-      <xdr:rowOff>6168</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A79F4A8-2A3D-41AC-B2F8-2B1EA0952DBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4812196" y="81906717"/>
-          <a:ext cx="4439270" cy="2648320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>373250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>54460</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B44CA53-7C8D-448C-9997-5E2CDDED85FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4812196" y="1200978"/>
-          <a:ext cx="3810532" cy="1495634"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>687456</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>240195</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>438977</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>98073</xdr:rowOff>
+      <xdr:colOff>480391</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Rectangle 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA5E0CF-FF7D-4423-AD6B-48513F881E0B}"/>
+        <xdr:cNvPr id="70" name="Rectangle 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12CAB6E2-5A0B-4CFE-8D07-B527DC88EA87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,8 +1624,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="687456" y="3122543"/>
-          <a:ext cx="2501347" cy="818660"/>
+          <a:off x="687457" y="8887239"/>
+          <a:ext cx="2542760" cy="819979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1851,7 +1656,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>「</a:t>
+            <a:t>今回の設定は結構なので、「</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -1859,7 +1664,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>amplify add auth</a:t>
+            <a:t>No, I am done.</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
@@ -1867,7 +1672,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>」コマンドで認証処理を追加する</a:t>
+            <a:t>」を選択する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1878,21 +1683,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>88849</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>98073</xdr:rowOff>
+      <xdr:colOff>480391</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Rectangle 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699F1C6E-AA2F-48C9-AAF8-BAEC6BC9B855}"/>
+        <xdr:cNvPr id="71" name="Rectangle 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51C34F2-AEB4-40F8-8BB8-9526D88B0134}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,8 +1705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="687457" y="5044109"/>
-          <a:ext cx="2151218" cy="818660"/>
+          <a:off x="687457" y="10328413"/>
+          <a:ext cx="2542760" cy="819979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1940,7 +1745,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Default configuration</a:t>
+            <a:t>amplify push</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
@@ -1948,7 +1753,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>」を選択する</a:t>
+            <a:t>」コマンドでバックエンド側を構築する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1959,21 +1764,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>240194</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:colOff>198782</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Rectangle 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D0C98C-7556-44FF-B36D-1352839F5429}"/>
+        <xdr:cNvPr id="72" name="Rectangle 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A268B93F-E2B8-45E4-ADB5-A40EDA442528}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,8 +1786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="687457" y="6725477"/>
-          <a:ext cx="2749826" cy="819979"/>
+          <a:off x="687457" y="12009783"/>
+          <a:ext cx="2948608" cy="877956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2013,7 +1818,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>メールアドレスでサインしたいため、「</a:t>
+            <a:t>設定した内容を確認して、よければ、「</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -2021,7 +1826,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Email</a:t>
+            <a:t>yes</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
@@ -2029,332 +1834,32 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>」を選択する</a:t>
+            <a:t>」にする</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>629478</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>184441</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DFB0CF-4AA8-445E-B3D7-494221156BD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:srcRect t="17389" r="980"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4812196" y="8887239"/>
-          <a:ext cx="4754217" cy="905028"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>480391</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Rectangle 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12CAB6E2-5A0B-4CFE-8D07-B527DC88EA87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="687457" y="8887239"/>
-          <a:ext cx="2542760" cy="819979"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>今回の設定は結構なので、「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>No, I am done.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>」を選択する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>480391</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Rectangle 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51C34F2-AEB4-40F8-8BB8-9526D88B0134}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="687457" y="10328413"/>
-          <a:ext cx="2542760" cy="819979"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>amplify push</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>」コマンドでバックエンド側を構築する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>198782</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>157369</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Rectangle 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A268B93F-E2B8-45E4-ADB5-A40EDA442528}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="687457" y="12009783"/>
-          <a:ext cx="2948608" cy="877956"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>設定した内容を確認して、よければ、「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>yes</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>」にする</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>687456</xdr:colOff>
+      <xdr:colOff>1656</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>430695</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>207065</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="75" name="Rectangle 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA31A91-58FD-4F71-877C-03BB0032DFDA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA31A91-58FD-4F71-877C-03BB0032DFDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,8 +1867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4812195" y="13931348"/>
-          <a:ext cx="5930348" cy="1408043"/>
+          <a:off x="4802256" y="13811250"/>
+          <a:ext cx="6399144" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2410,7 +1915,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>追加された認証処理を使う手順デモとソースコードを参考してください</a:t>
+            <a:t>追加された認証処理を使う為のソースコードはデモとソースコードを参考してください</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
@@ -2605,7 +2110,7 @@
         <xdr:cNvPr id="77" name="Picture 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2BEDE9-9A48-4EB6-8FE0-5A00674683DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2BEDE9-9A48-4EB6-8FE0-5A00674683DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2119,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:srcRect t="17152"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2662,7 +2167,7 @@
         <xdr:cNvPr id="78" name="Rectangle 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646ED4E1-060F-4BF6-980C-E445D588A6F7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646ED4E1-060F-4BF6-980C-E445D588A6F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2264,7 @@
         <xdr:cNvPr id="79" name="Rectangle 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5096099-D8F1-4068-82C5-85C4EDDC58E0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5096099-D8F1-4068-82C5-85C4EDDC58E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2345,7 @@
         <xdr:cNvPr id="80" name="Rectangle 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C22167-A8A8-4FDE-B2BB-27CD97669884}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C22167-A8A8-4FDE-B2BB-27CD97669884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,15 +2471,15 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>397146</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>239536</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="81" name="Picture 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B1D178-17DE-428E-9082-B6137CAEDBC6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B1D178-17DE-428E-9082-B6137CAEDBC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +2488,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3032,7 +2537,7 @@
         <xdr:cNvPr id="86" name="Picture 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCFF446-FA57-4D58-B2AB-220AF28FC804}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCFF446-FA57-4D58-B2AB-220AF28FC804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,7 +2546,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3090,7 +2595,7 @@
         <xdr:cNvPr id="87" name="Picture 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89AEBD1D-940A-4516-9EA5-D09B0F3DA496}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89AEBD1D-940A-4516-9EA5-D09B0F3DA496}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3099,7 +2604,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3148,7 +2653,7 @@
         <xdr:cNvPr id="92" name="Arrow: Down 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0E93AD-85E7-43E3-B3F3-F1DA49BA83AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0E93AD-85E7-43E3-B3F3-F1DA49BA83AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +2713,7 @@
         <xdr:cNvPr id="94" name="Rectangle 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2D7DCC-CAFB-42B9-A90E-B9A1C11F69EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2D7DCC-CAFB-42B9-A90E-B9A1C11F69EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3289,7 +2794,7 @@
         <xdr:cNvPr id="95" name="Rectangle 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3465708A-8992-4AAE-B281-F1EE033CB461}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3465708A-8992-4AAE-B281-F1EE033CB461}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3370,7 +2875,7 @@
         <xdr:cNvPr id="96" name="Rectangle 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86612C33-2357-40CE-BEAC-8CEDEDAEC551}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86612C33-2357-40CE-BEAC-8CEDEDAEC551}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3467,7 +2972,7 @@
         <xdr:cNvPr id="97" name="Rectangle 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8482CAA8-ABFE-4412-BA9F-10851DAC9514}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8482CAA8-ABFE-4412-BA9F-10851DAC9514}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,7 +3061,7 @@
         <xdr:cNvPr id="98" name="Rectangle 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67629BDA-B72F-46A7-AD4A-65AC38F50154}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67629BDA-B72F-46A7-AD4A-65AC38F50154}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3636,11 +3141,548 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>の選択でよい</a:t>
+            <a:t>の選択で、よい</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67629BDA-B72F-46A7-AD4A-65AC38F50154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="31670625"/>
+          <a:ext cx="3657600" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>デフォルトの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Graphql</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のスキーマを図のように変更する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ソースコード参照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>546446</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>211672</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88578888-5642-4D81-B25F-7ABDCE2F42B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="34766250"/>
+          <a:ext cx="7404446" cy="3307297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>109430</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Arrow: Down 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0E93AD-85E7-43E3-B3F3-F1DA49BA83AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8782050" y="34128075"/>
+          <a:ext cx="242780" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rectangle 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67629BDA-B72F-46A7-AD4A-65AC38F50154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="38814375"/>
+          <a:ext cx="3790950" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>amplify</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> push</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」コマンドで現在の設定でバックエンドを構築する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67629BDA-B72F-46A7-AD4A-65AC38F50154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="40719375"/>
+          <a:ext cx="3790950" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>追加・変更になった点を確認して、「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>yes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rectangle 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67629BDA-B72F-46A7-AD4A-65AC38F50154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="43338750"/>
+          <a:ext cx="3790950" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>追加・変更になった点を確認して、「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>yes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101830</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>125935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0A1174-2D29-4FC6-A15C-A00E95DD61CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="43338750"/>
+          <a:ext cx="5588230" cy="3221560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3666,7 +3708,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D040D55A-4CE2-459C-AB79-D6F30ABFDBEE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D040D55A-4CE2-459C-AB79-D6F30ABFDBEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3723,7 +3765,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDE720F-5EF0-4563-B6C4-84C3628C7207}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDE720F-5EF0-4563-B6C4-84C3628C7207}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,7 +3823,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE561E4-0B9E-4127-8742-DF7AC13DD80B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE561E4-0B9E-4127-8742-DF7AC13DD80B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3839,7 +3881,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0EF02CC-C295-4CB1-9ECC-FAD4484D85B9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0EF02CC-C295-4CB1-9ECC-FAD4484D85B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3897,7 +3939,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7C24E3-C3BF-41EE-8163-E6428E0A2D3D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7C24E3-C3BF-41EE-8163-E6428E0A2D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3955,7 +3997,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E816BAE4-2739-470A-BE80-B89AEE325B26}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E816BAE4-2739-470A-BE80-B89AEE325B26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4260,32 +4302,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S180" sqref="S180"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K198" sqref="K198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4294,11 +4345,6 @@
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B125" s="2"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A159">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4309,7 +4355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE1AA30-AB4B-435D-8DE1-31A7E4C52A40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4322,7 +4368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B39F141-8A2E-4311-9AB0-700E39E2F56A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4335,7 +4381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F34CCFD-BC06-4B24-968F-793222317D1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
